--- a/AD-EYE/Experiments/Test_World_2/Simulation/TArosparam2.xlsx
+++ b/AD-EYE/Experiments/Test_World_2/Simulation/TArosparam2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhika\Desktop\RUT\S_base_world_V3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhika\AD-EYE_Core\AD-EYE\Experiments\Test_World_1\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="241">
   <si>
     <t>tf_x</t>
   </si>
@@ -688,9 +688,6 @@
     <t>manager</t>
   </si>
   <si>
-    <t>WorldName</t>
-  </si>
-  <si>
     <t>CurrentRun</t>
   </si>
   <si>
@@ -700,9 +697,6 @@
     <t>notYetDecided</t>
   </si>
   <si>
-    <t>points_map_loader</t>
-  </si>
-  <si>
     <t>args</t>
   </si>
   <si>
@@ -733,51 +727,21 @@
     <t>tf1_yaw</t>
   </si>
   <si>
-    <t>PointCloud_Files_Folder</t>
-  </si>
-  <si>
-    <t>vector_map_loader</t>
-  </si>
-  <si>
-    <t>VectorMap_files_Folder</t>
-  </si>
-  <si>
-    <t>$(find adeye)/../../../../../AD-EYE/Experiments/Base_Map/Vector_Map_Files/</t>
-  </si>
-  <si>
     <t>SSMP</t>
   </si>
   <si>
-    <t>GridMapCreator</t>
-  </si>
-  <si>
     <t>ss_trajplanner</t>
   </si>
   <si>
-    <t>Vector_Map_Folder</t>
-  </si>
-  <si>
-    <t>Pex_Folder</t>
-  </si>
-  <si>
-    <t>filePex</t>
-  </si>
-  <si>
     <t>trajectory_set_filename</t>
   </si>
   <si>
-    <t>Base_Map_S.pex</t>
-  </si>
-  <si>
     <t>$(find ss_trajplanner)/data/SSMP_trajectories/SSMPset_2018-1-3--11-58-48.csv</t>
   </si>
   <si>
     <t>-d $(find adeye)/rviz/SSMP_grid_map.rviz</t>
   </si>
   <si>
-    <t>$(find adeye)/../../../../../AD-EYE/Experiments/Base_Map/Simulation/</t>
-  </si>
-  <si>
     <t>BaseLink_to_velodyne</t>
   </si>
   <si>
@@ -788,9 +752,6 @@
   </si>
   <si>
     <t>-d $(find adeye)/rviz/config.rviz</t>
-  </si>
-  <si>
-    <t>Base_Map</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,12 +1196,12 @@
         <v>219</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
-        <v>222</v>
+      <c r="G2" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1254,69 +1215,81 @@
         <v>220</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="10">
-        <v>0</v>
+      <c r="G3" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>222</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>253</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>237</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.07</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,10 +1297,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -1339,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="5">
-        <v>-0.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1347,10 +1320,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
@@ -1370,10 +1343,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>5</v>
@@ -1385,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="5">
-        <v>1.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1393,68 +1366,64 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F10" s="5">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>249</v>
+      <c r="B11" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
         <v>10</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>249</v>
+      <c r="B12" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1462,64 +1431,60 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>227</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>210</v>
+      <c r="B14" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>210</v>
+      <c r="B15" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>300</v>
-      </c>
-      <c r="G15" s="5">
-        <v>200</v>
+        <v>63</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1530,18 +1495,14 @@
         <v>211</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1553,15 +1514,15 @@
         <v>211</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5">
-        <v>1</v>
+      <c r="G17" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1572,15 +1533,15 @@
         <v>211</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5" t="b">
-        <v>0</v>
+      <c r="G18" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1591,15 +1552,19 @@
         <v>211</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="b">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1610,15 +1575,15 @@
         <v>211</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5" t="b">
-        <v>0</v>
+      <c r="G20" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1629,15 +1594,15 @@
         <v>211</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>67</v>
+      <c r="G21" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1648,19 +1613,15 @@
         <v>211</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1671,83 +1632,95 @@
         <v>211</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>68</v>
+      <c r="G23" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="b">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F25" s="5">
+        <v>10</v>
+      </c>
+      <c r="G25" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F26" s="5">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
@@ -1758,19 +1731,19 @@
       <c r="F27" s="5">
         <v>10</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>229</v>
+      <c r="G27" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
@@ -1787,13 +1760,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
@@ -1804,142 +1777,142 @@
       <c r="F29" s="5">
         <v>10</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>230</v>
+      <c r="G29" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F30" s="5">
-        <v>10</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5">
         <v>10</v>
       </c>
-      <c r="G31" s="5">
-        <v>0</v>
+      <c r="G31" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F32" s="5">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G32" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5" t="s">
-        <v>227</v>
+        <v>5</v>
+      </c>
+      <c r="E33" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F33" s="5">
+        <v>10</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.31</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F34" s="5">
         <v>10</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>231</v>
+      <c r="G34" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F35" s="5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G35" s="5">
-        <v>200</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1947,10 +1920,10 @@
         <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>5</v>
@@ -1962,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="5">
-        <v>0.31</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1970,10 +1943,10 @@
         <v>23</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>5</v>
@@ -1985,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1993,10 +1966,10 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>5</v>
@@ -2008,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="5">
-        <v>0.63</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2016,10 +1989,10 @@
         <v>23</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>5</v>
@@ -2031,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="5">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2039,10 +2012,10 @@
         <v>23</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>5</v>
@@ -2054,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="5">
-        <v>0.5</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2062,10 +2035,10 @@
         <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>5</v>
@@ -2077,7 +2050,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2085,10 +2058,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>5</v>
@@ -2100,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="5">
-        <v>0.5</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2108,10 +2081,10 @@
         <v>23</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>5</v>
@@ -2123,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="5">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,10 +2104,10 @@
         <v>23</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>5</v>
@@ -2146,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2154,10 +2127,10 @@
         <v>23</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>5</v>
@@ -2169,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="5">
-        <v>1.1100000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2177,10 +2150,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>5</v>
@@ -2192,76 +2165,64 @@
         <v>10</v>
       </c>
       <c r="G46" s="5">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>251</v>
+      <c r="B47" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F47" s="5">
-        <v>10</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0.5</v>
+        <v>19</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>251</v>
+      <c r="B48" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F48" s="5">
-        <v>10</v>
-      </c>
-      <c r="G48" s="5">
-        <v>-0.5</v>
+        <v>19</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>251</v>
+      <c r="B49" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F49" s="5">
-        <v>10</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0.5</v>
+        <v>19</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2272,15 +2233,17 @@
         <v>158</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="4" t="s">
-        <v>199</v>
+      <c r="G50" s="4">
+        <v>720</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2291,15 +2254,17 @@
         <v>158</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="4" t="s">
-        <v>84</v>
+      <c r="G51" s="4">
+        <v>960</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2310,15 +2275,17 @@
         <v>158</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
       <c r="F52" s="5"/>
-      <c r="G52" s="4" t="s">
-        <v>200</v>
+      <c r="G52" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2329,17 +2296,17 @@
         <v>158</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="4">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2350,17 +2317,17 @@
         <v>158</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="4">
-        <v>960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2371,7 +2338,7 @@
         <v>158</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>5</v>
@@ -2392,7 +2359,7 @@
         <v>158</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>5</v>
@@ -2413,7 +2380,7 @@
         <v>158</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>5</v>
@@ -2423,7 +2390,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2434,7 +2401,7 @@
         <v>158</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>5</v>
@@ -2455,7 +2422,7 @@
         <v>158</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>5</v>
@@ -2465,7 +2432,7 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="4">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2476,7 +2443,7 @@
         <v>158</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>5</v>
@@ -2486,7 +2453,7 @@
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2497,7 +2464,7 @@
         <v>158</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>5</v>
@@ -2507,7 +2474,7 @@
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2518,7 +2485,7 @@
         <v>158</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>5</v>
@@ -2528,7 +2495,7 @@
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="4">
-        <v>480</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2539,7 +2506,7 @@
         <v>158</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>5</v>
@@ -2560,7 +2527,7 @@
         <v>158</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>5</v>
@@ -2570,7 +2537,7 @@
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2581,7 +2548,7 @@
         <v>158</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>5</v>
@@ -2591,7 +2558,7 @@
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="4">
-        <v>360</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2602,7 +2569,7 @@
         <v>158</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>5</v>
@@ -2612,7 +2579,7 @@
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2623,7 +2590,7 @@
         <v>158</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>5</v>
@@ -2644,7 +2611,7 @@
         <v>158</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>5</v>
@@ -2654,7 +2621,7 @@
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2665,7 +2632,7 @@
         <v>158</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>5</v>
@@ -2675,7 +2642,7 @@
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2686,7 +2653,7 @@
         <v>158</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>5</v>
@@ -2696,7 +2663,7 @@
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,7 +2674,7 @@
         <v>158</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>5</v>
@@ -2728,7 +2695,7 @@
         <v>158</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>5</v>
@@ -2749,7 +2716,7 @@
         <v>158</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>5</v>
@@ -2759,7 +2726,7 @@
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2770,7 +2737,7 @@
         <v>158</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>5</v>
@@ -2780,7 +2747,7 @@
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2791,7 +2758,7 @@
         <v>158</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>5</v>
@@ -2801,7 +2768,7 @@
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2812,7 +2779,7 @@
         <v>158</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>5</v>
@@ -2833,7 +2800,7 @@
         <v>158</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>5</v>
@@ -2843,7 +2810,7 @@
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="4">
-        <v>1</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2854,7 +2821,7 @@
         <v>158</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>5</v>
@@ -2864,7 +2831,7 @@
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2875,7 +2842,7 @@
         <v>158</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>5</v>
@@ -2896,7 +2863,7 @@
         <v>158</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>5</v>
@@ -2906,7 +2873,7 @@
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="4">
-        <v>480</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2917,7 +2884,7 @@
         <v>158</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>5</v>
@@ -2927,7 +2894,7 @@
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,7 +2905,7 @@
         <v>158</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>5</v>
@@ -2959,7 +2926,7 @@
         <v>158</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>5</v>
@@ -2969,7 +2936,7 @@
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2980,7 +2947,7 @@
         <v>158</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>5</v>
@@ -2990,7 +2957,7 @@
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3001,7 +2968,7 @@
         <v>158</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>5</v>
@@ -3011,7 +2978,7 @@
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3022,7 +2989,7 @@
         <v>158</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>5</v>
@@ -3040,20 +3007,18 @@
         <v>23</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="5">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="4">
-        <v>0</v>
+      <c r="G87" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3061,20 +3026,18 @@
         <v>23</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="5">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="4">
-        <v>1</v>
+      <c r="G88" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3082,20 +3045,18 @@
         <v>23</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="5">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="4">
-        <v>0</v>
+      <c r="G89" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3106,15 +3067,17 @@
         <v>198</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0</v>
+      </c>
       <c r="F90" s="5"/>
-      <c r="G90" s="4" t="s">
-        <v>201</v>
+      <c r="G90" s="4">
+        <v>720</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3125,15 +3088,17 @@
         <v>198</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
       <c r="F91" s="5"/>
-      <c r="G91" s="4" t="s">
-        <v>202</v>
+      <c r="G91" s="4">
+        <v>960</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3144,15 +3109,17 @@
         <v>198</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
       <c r="F92" s="5"/>
-      <c r="G92" s="4" t="s">
-        <v>203</v>
+      <c r="G92" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3163,17 +3130,17 @@
         <v>198</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="4">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3184,17 +3151,17 @@
         <v>198</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="4">
-        <v>960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3205,7 +3172,7 @@
         <v>198</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>5</v>
@@ -3226,7 +3193,7 @@
         <v>198</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>5</v>
@@ -3247,7 +3214,7 @@
         <v>198</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>5</v>
@@ -3257,7 +3224,7 @@
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3268,7 +3235,7 @@
         <v>198</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>5</v>
@@ -3289,7 +3256,7 @@
         <v>198</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>5</v>
@@ -3299,7 +3266,7 @@
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="4">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3310,7 +3277,7 @@
         <v>198</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>5</v>
@@ -3320,7 +3287,7 @@
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3331,7 +3298,7 @@
         <v>198</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>5</v>
@@ -3341,7 +3308,7 @@
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3352,7 +3319,7 @@
         <v>198</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>5</v>
@@ -3362,7 +3329,7 @@
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="4">
-        <v>480</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3373,7 +3340,7 @@
         <v>198</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>5</v>
@@ -3394,7 +3361,7 @@
         <v>198</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>5</v>
@@ -3404,7 +3371,7 @@
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3415,7 +3382,7 @@
         <v>198</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>5</v>
@@ -3425,7 +3392,7 @@
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="4">
-        <v>360</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3436,7 +3403,7 @@
         <v>198</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>5</v>
@@ -3446,7 +3413,7 @@
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3457,7 +3424,7 @@
         <v>198</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>5</v>
@@ -3478,7 +3445,7 @@
         <v>198</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>5</v>
@@ -3488,7 +3455,7 @@
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3499,7 +3466,7 @@
         <v>198</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>5</v>
@@ -3509,7 +3476,7 @@
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3520,7 +3487,7 @@
         <v>198</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>5</v>
@@ -3530,7 +3497,7 @@
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3541,7 +3508,7 @@
         <v>198</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>5</v>
@@ -3562,7 +3529,7 @@
         <v>198</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>5</v>
@@ -3583,7 +3550,7 @@
         <v>198</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>5</v>
@@ -3593,7 +3560,7 @@
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3604,7 +3571,7 @@
         <v>198</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>5</v>
@@ -3614,7 +3581,7 @@
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3625,7 +3592,7 @@
         <v>198</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>5</v>
@@ -3635,7 +3602,7 @@
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="4">
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3646,7 +3613,7 @@
         <v>198</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>5</v>
@@ -3667,7 +3634,7 @@
         <v>198</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>5</v>
@@ -3677,7 +3644,7 @@
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="4">
-        <v>1</v>
+        <v>480</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3688,7 +3655,7 @@
         <v>198</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>5</v>
@@ -3698,7 +3665,7 @@
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3709,7 +3676,7 @@
         <v>198</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>5</v>
@@ -3730,7 +3697,7 @@
         <v>198</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>5</v>
@@ -3740,7 +3707,7 @@
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="4">
-        <v>480</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3751,7 +3718,7 @@
         <v>198</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>5</v>
@@ -3761,7 +3728,7 @@
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3772,7 +3739,7 @@
         <v>198</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>5</v>
@@ -3793,7 +3760,7 @@
         <v>198</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>5</v>
@@ -3803,7 +3770,7 @@
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="4">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3814,7 +3781,7 @@
         <v>198</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>5</v>
@@ -3824,7 +3791,7 @@
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3835,7 +3802,7 @@
         <v>198</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>5</v>
@@ -3845,7 +3812,7 @@
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3856,7 +3823,7 @@
         <v>198</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>5</v>
@@ -3874,20 +3841,18 @@
         <v>23</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" s="5">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="4">
-        <v>0</v>
+      <c r="G127" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3895,20 +3860,22 @@
         <v>23</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
-      <c r="F128" s="5"/>
-      <c r="G128" s="4">
-        <v>1</v>
+      <c r="F128" s="5">
+        <v>3</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3916,10 +3883,10 @@
         <v>23</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>5</v>
@@ -3927,9 +3894,11 @@
       <c r="E129" s="5">
         <v>0</v>
       </c>
-      <c r="F129" s="5"/>
-      <c r="G129" s="4">
-        <v>0</v>
+      <c r="F129" s="5">
+        <v>1</v>
+      </c>
+      <c r="G129" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3940,15 +3909,15 @@
         <v>212</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="5" t="b">
-        <v>1</v>
+      <c r="G130" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3959,19 +3928,15 @@
         <v>212</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" s="5">
-        <v>0</v>
-      </c>
-      <c r="F131" s="5">
-        <v>3</v>
-      </c>
-      <c r="G131" s="5">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3982,19 +3947,15 @@
         <v>212</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="5">
-        <v>0</v>
-      </c>
-      <c r="F132" s="5">
-        <v>1</v>
-      </c>
-      <c r="G132" s="5">
-        <v>0.5</v>
+        <v>19</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4005,7 +3966,7 @@
         <v>212</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>19</v>
@@ -4013,7 +3974,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="8" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4021,10 +3982,10 @@
         <v>23</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>19</v>
@@ -4032,7 +3993,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="8" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4040,10 +4001,10 @@
         <v>23</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>19</v>
@@ -4051,7 +4012,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4059,18 +4020,22 @@
         <v>23</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="8" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="E136" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F136" s="5">
+        <v>10</v>
+      </c>
+      <c r="G136" s="5">
+        <v>1.2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4078,18 +4043,18 @@
         <v>23</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="8" t="s">
-        <v>84</v>
+      <c r="G137" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4097,18 +4062,18 @@
         <v>23</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="8" t="s">
-        <v>86</v>
+      <c r="G138" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4116,22 +4081,18 @@
         <v>23</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F139" s="5">
-        <v>10</v>
-      </c>
-      <c r="G139" s="5">
-        <v>1.2</v>
+        <v>63</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4142,15 +4103,19 @@
         <v>88</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="9" t="s">
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="E140" s="5">
+        <v>0</v>
+      </c>
+      <c r="F140" s="5">
+        <v>1</v>
+      </c>
+      <c r="G140" s="5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4161,15 +4126,17 @@
         <v>88</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E141" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E141" s="5">
+        <v>0</v>
+      </c>
       <c r="F141" s="5"/>
-      <c r="G141" s="5" t="b">
-        <v>1</v>
+      <c r="G141" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4180,15 +4147,17 @@
         <v>88</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E142" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E142" s="5">
+        <v>0</v>
+      </c>
       <c r="F142" s="5"/>
-      <c r="G142" s="5" t="b">
-        <v>0</v>
+      <c r="G142" s="5">
+        <v>100000</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4199,19 +4168,15 @@
         <v>88</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="5">
-        <v>0</v>
-      </c>
-      <c r="F143" s="5">
-        <v>1</v>
-      </c>
-      <c r="G143" s="5">
-        <v>0.1</v>
+        <v>63</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4222,17 +4187,15 @@
         <v>88</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E144" s="5">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E144" s="5"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="5">
-        <v>20</v>
+      <c r="G144" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4243,17 +4206,15 @@
         <v>88</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="5">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E145" s="5"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="5">
-        <v>100000</v>
+      <c r="G145" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4264,15 +4225,19 @@
         <v>88</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E146" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F146" s="5">
+        <v>10</v>
+      </c>
+      <c r="G146" s="5">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4283,15 +4248,19 @@
         <v>88</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E147" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F147" s="5">
+        <v>10</v>
+      </c>
+      <c r="G147" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4302,7 +4271,7 @@
         <v>88</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>63</v>
@@ -4310,7 +4279,7 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4321,19 +4290,19 @@
         <v>88</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E149" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F149" s="5">
         <v>10</v>
       </c>
       <c r="G149" s="5">
-        <v>-1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4344,19 +4313,19 @@
         <v>88</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E150" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F150" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G150" s="5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4367,15 +4336,19 @@
         <v>88</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E151" s="5">
+        <v>0</v>
+      </c>
+      <c r="F151" s="5">
+        <v>20</v>
+      </c>
+      <c r="G151" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4386,7 +4359,7 @@
         <v>88</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>5</v>
@@ -4398,7 +4371,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="5">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4409,7 +4382,7 @@
         <v>88</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>5</v>
@@ -4418,10 +4391,10 @@
         <v>0</v>
       </c>
       <c r="F153" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G153" s="5">
-        <v>5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4432,19 +4405,15 @@
         <v>88</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154" s="5">
-        <v>0</v>
-      </c>
-      <c r="F154" s="5">
-        <v>20</v>
-      </c>
-      <c r="G154" s="5">
-        <v>10</v>
+        <v>63</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4455,19 +4424,15 @@
         <v>88</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" s="5">
-        <v>0</v>
-      </c>
-      <c r="F155" s="5">
-        <v>10</v>
-      </c>
-      <c r="G155" s="5">
-        <v>1.5</v>
+        <v>19</v>
+      </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4478,19 +4443,15 @@
         <v>88</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156" s="5">
-        <v>0</v>
-      </c>
-      <c r="F156" s="5">
-        <v>10</v>
-      </c>
-      <c r="G156" s="5">
-        <v>0.75</v>
+        <v>19</v>
+      </c>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4501,15 +4462,15 @@
         <v>88</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="5" t="b">
-        <v>0</v>
+      <c r="G157" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4520,15 +4481,15 @@
         <v>88</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="5" t="s">
-        <v>21</v>
+      <c r="G158" s="5">
+        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4539,7 +4500,7 @@
         <v>88</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>19</v>
@@ -4547,7 +4508,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4558,15 +4519,19 @@
         <v>88</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5" t="s">
-        <v>115</v>
+        <v>5</v>
+      </c>
+      <c r="E160" s="5">
+        <v>-10</v>
+      </c>
+      <c r="F160" s="5">
+        <v>10</v>
+      </c>
+      <c r="G160" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,15 +4542,15 @@
         <v>88</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="5">
-        <v>255</v>
+      <c r="G161" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4596,15 +4561,15 @@
         <v>88</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
-      <c r="G162" s="5" t="s">
-        <v>116</v>
+      <c r="G162" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4615,19 +4580,15 @@
         <v>88</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F163" s="5">
-        <v>10</v>
-      </c>
-      <c r="G163" s="5">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4638,15 +4599,15 @@
         <v>88</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="5" t="b">
-        <v>0</v>
+      <c r="G164" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4654,18 +4615,18 @@
         <v>23</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="5" t="b">
-        <v>0</v>
+      <c r="G165" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4673,18 +4634,18 @@
         <v>23</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="5" t="s">
-        <v>117</v>
+      <c r="G166" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4692,18 +4653,18 @@
         <v>23</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="5" t="s">
-        <v>118</v>
+      <c r="G167" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4714,15 +4675,15 @@
         <v>119</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="9" t="s">
-        <v>127</v>
+      <c r="G168" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4733,15 +4694,15 @@
         <v>119</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="9" t="s">
-        <v>128</v>
+      <c r="G169" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4752,15 +4713,15 @@
         <v>119</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="9" t="s">
-        <v>84</v>
+      <c r="G170" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4771,15 +4732,15 @@
         <v>119</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="5" t="s">
-        <v>129</v>
+      <c r="G171" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4790,15 +4751,19 @@
         <v>119</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5" t="s">
-        <v>130</v>
+        <v>5</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0</v>
+      </c>
+      <c r="F172" s="5">
+        <v>10</v>
+      </c>
+      <c r="G172" s="5">
+        <v>0.4</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4806,18 +4771,18 @@
         <v>23</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="5" t="s">
-        <v>131</v>
+      <c r="G173" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -4825,18 +4790,18 @@
         <v>23</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="5" t="b">
-        <v>0</v>
+      <c r="G174" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -4844,22 +4809,18 @@
         <v>23</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E175" s="5">
-        <v>0</v>
-      </c>
-      <c r="F175" s="5">
-        <v>10</v>
-      </c>
-      <c r="G175" s="5">
-        <v>0.4</v>
+        <v>63</v>
+      </c>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4867,7 +4828,7 @@
         <v>23</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>78</v>
@@ -4878,7 +4839,7 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="9" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4886,10 +4847,10 @@
         <v>23</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>19</v>
@@ -4897,7 +4858,7 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="9" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4905,18 +4866,18 @@
         <v>23</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="5" t="b">
-        <v>0</v>
+      <c r="G178" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4927,7 +4888,7 @@
         <v>135</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>19</v>
@@ -4935,7 +4896,7 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="9" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4946,7 +4907,7 @@
         <v>135</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>19</v>
@@ -4954,64 +4915,68 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="9" t="s">
-        <v>140</v>
+        <v>5</v>
+      </c>
+      <c r="E181" s="5">
+        <v>0</v>
+      </c>
+      <c r="F181" s="5">
+        <v>2</v>
+      </c>
+      <c r="G181" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="9" t="s">
-        <v>141</v>
+      <c r="G182" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="9" t="s">
-        <v>142</v>
+      <c r="G183" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5022,19 +4987,15 @@
         <v>214</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E184" s="5">
-        <v>0</v>
-      </c>
-      <c r="F184" s="5">
-        <v>2</v>
-      </c>
-      <c r="G184" s="5">
-        <v>0.75</v>
+        <v>63</v>
+      </c>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5045,7 +5006,7 @@
         <v>214</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>63</v>
@@ -5053,7 +5014,7 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5064,15 +5025,19 @@
         <v>214</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5" t="b">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0</v>
+      </c>
+      <c r="F186" s="5">
+        <v>2</v>
+      </c>
+      <c r="G186" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5083,15 +5048,19 @@
         <v>214</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E187" s="5">
+        <v>0</v>
+      </c>
+      <c r="F187" s="5">
+        <v>2</v>
+      </c>
+      <c r="G187" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5102,7 +5071,7 @@
         <v>214</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>63</v>
@@ -5115,67 +5084,71 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E189" s="5">
         <v>0</v>
       </c>
       <c r="F189" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G189" s="5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E190" s="5">
         <v>0</v>
       </c>
       <c r="F190" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G190" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E191" s="5">
+        <v>0</v>
+      </c>
+      <c r="F191" s="5">
+        <v>20</v>
+      </c>
+      <c r="G191" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5186,7 +5159,7 @@
         <v>65</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>5</v>
@@ -5195,10 +5168,10 @@
         <v>0</v>
       </c>
       <c r="F192" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G192" s="5">
-        <v>0.75</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5209,7 +5182,7 @@
         <v>65</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>5</v>
@@ -5218,10 +5191,10 @@
         <v>0</v>
       </c>
       <c r="F193" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G193" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5232,7 +5205,7 @@
         <v>65</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>5</v>
@@ -5241,10 +5214,10 @@
         <v>0</v>
       </c>
       <c r="F194" s="5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G194" s="5">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5255,7 +5228,7 @@
         <v>65</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>5</v>
@@ -5264,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="F195" s="5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G195" s="5">
-        <v>11.1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5278,7 +5251,7 @@
         <v>65</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>5</v>
@@ -5287,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="F196" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G196" s="5">
-        <v>0.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5301,7 +5274,7 @@
         <v>65</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>5</v>
@@ -5310,10 +5283,10 @@
         <v>0</v>
       </c>
       <c r="F197" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G197" s="5">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5324,7 +5297,7 @@
         <v>65</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>5</v>
@@ -5333,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="F198" s="5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G198" s="5">
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5347,7 +5320,7 @@
         <v>65</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>5</v>
@@ -5356,10 +5329,10 @@
         <v>0</v>
       </c>
       <c r="F199" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G199" s="5">
-        <v>20</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5370,7 +5343,7 @@
         <v>65</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>5</v>
@@ -5379,10 +5352,10 @@
         <v>0</v>
       </c>
       <c r="F200" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G200" s="5">
-        <v>15</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5393,7 +5366,7 @@
         <v>65</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>5</v>
@@ -5402,10 +5375,10 @@
         <v>0</v>
       </c>
       <c r="F201" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G201" s="5">
-        <v>5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5416,7 +5389,7 @@
         <v>65</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>5</v>
@@ -5439,7 +5412,7 @@
         <v>65</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>5</v>
@@ -5451,7 +5424,7 @@
         <v>10</v>
       </c>
       <c r="G203" s="5">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5462,19 +5435,15 @@
         <v>65</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E204" s="5">
-        <v>0</v>
-      </c>
-      <c r="F204" s="5">
-        <v>10</v>
-      </c>
-      <c r="G204" s="5">
-        <v>0.4</v>
+        <v>63</v>
+      </c>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5485,19 +5454,15 @@
         <v>65</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E205" s="5">
-        <v>0</v>
-      </c>
-      <c r="F205" s="5">
-        <v>10</v>
-      </c>
-      <c r="G205" s="5">
-        <v>1.2</v>
+        <v>63</v>
+      </c>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5508,19 +5473,15 @@
         <v>65</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E206" s="5">
-        <v>0</v>
-      </c>
-      <c r="F206" s="5">
-        <v>10</v>
-      </c>
-      <c r="G206" s="5">
-        <v>0.8</v>
+        <v>63</v>
+      </c>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5531,7 +5492,7 @@
         <v>65</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>63</v>
@@ -5539,7 +5500,7 @@
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5550,7 +5511,7 @@
         <v>65</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>63</v>
@@ -5569,15 +5530,19 @@
         <v>65</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E209" s="5">
+        <v>0</v>
+      </c>
+      <c r="F209" s="5">
+        <v>10</v>
+      </c>
+      <c r="G209" s="5">
+        <v>1.85</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5588,15 +5553,19 @@
         <v>65</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E210" s="5">
+        <v>0</v>
+      </c>
+      <c r="F210" s="5">
+        <v>10</v>
+      </c>
+      <c r="G210" s="5">
+        <v>4.2</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -5607,15 +5576,19 @@
         <v>65</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E211" s="5">
+        <v>0</v>
+      </c>
+      <c r="F211" s="5">
+        <v>10</v>
+      </c>
+      <c r="G211" s="5">
+        <v>2.7</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -5626,7 +5599,7 @@
         <v>65</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>5</v>
@@ -5638,7 +5611,7 @@
         <v>10</v>
       </c>
       <c r="G212" s="5">
-        <v>1.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -5649,7 +5622,7 @@
         <v>65</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>5</v>
@@ -5661,7 +5634,7 @@
         <v>10</v>
       </c>
       <c r="G213" s="5">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -5672,7 +5645,7 @@
         <v>65</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>5</v>
@@ -5684,7 +5657,7 @@
         <v>10</v>
       </c>
       <c r="G214" s="5">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5695,7 +5668,7 @@
         <v>65</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>5</v>
@@ -5707,7 +5680,7 @@
         <v>10</v>
       </c>
       <c r="G215" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -5718,7 +5691,7 @@
         <v>65</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>5</v>
@@ -5730,7 +5703,7 @@
         <v>10</v>
       </c>
       <c r="G216" s="5">
-        <v>0.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5741,19 +5714,19 @@
         <v>65</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E217" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F217" s="5">
         <v>10</v>
       </c>
       <c r="G217" s="5">
-        <v>1.2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -5764,7 +5737,7 @@
         <v>65</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>5</v>
@@ -5787,19 +5760,19 @@
         <v>65</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E219" s="5">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F219" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G219" s="5">
-        <v>5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -5810,19 +5783,19 @@
         <v>65</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E220" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F220" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G220" s="5">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5830,22 +5803,18 @@
         <v>216</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E221" s="5">
-        <v>0</v>
-      </c>
-      <c r="F221" s="5">
-        <v>10</v>
-      </c>
-      <c r="G221" s="5">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5853,22 +5822,18 @@
         <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E222" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F222" s="5">
-        <v>0</v>
-      </c>
-      <c r="G222" s="5">
-        <v>-3</v>
+        <v>63</v>
+      </c>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5876,21 +5841,17 @@
         <v>216</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E223" s="5">
-        <v>0</v>
-      </c>
-      <c r="F223" s="5">
-        <v>2</v>
-      </c>
-      <c r="G223" s="5">
+        <v>63</v>
+      </c>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5899,18 +5860,22 @@
         <v>216</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E224" s="5">
+        <v>0</v>
+      </c>
+      <c r="F224" s="5">
+        <v>10</v>
+      </c>
+      <c r="G224" s="5">
+        <v>1.2</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -5918,37 +5883,45 @@
         <v>216</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E225" s="5">
+        <v>0</v>
+      </c>
+      <c r="F225" s="5">
+        <v>10</v>
+      </c>
+      <c r="G225" s="5">
+        <v>0.8</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>143</v>
+      <c r="B226" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="5" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E226" s="5">
+        <v>0</v>
+      </c>
+      <c r="F226" s="5">
+        <v>100</v>
+      </c>
+      <c r="G226" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -5956,22 +5929,22 @@
         <v>216</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E227" s="5">
         <v>0</v>
       </c>
       <c r="F227" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G227" s="5">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -5979,10 +5952,10 @@
         <v>216</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>5</v>
@@ -5991,21 +5964,21 @@
         <v>0</v>
       </c>
       <c r="F228" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G228" s="5">
-        <v>0.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>145</v>
+      <c r="B229" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>5</v>
@@ -6014,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="F229" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G229" s="5">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6028,19 +6001,19 @@
         <v>213</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E230" s="5">
         <v>0</v>
       </c>
       <c r="F230" s="5">
+        <v>10</v>
+      </c>
+      <c r="G230" s="5">
         <v>1</v>
-      </c>
-      <c r="G230" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6051,7 +6024,7 @@
         <v>213</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>5</v>
@@ -6060,10 +6033,10 @@
         <v>0</v>
       </c>
       <c r="F231" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G231" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -6074,7 +6047,7 @@
         <v>213</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>5</v>
@@ -6086,7 +6059,7 @@
         <v>10</v>
       </c>
       <c r="G232" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6097,7 +6070,7 @@
         <v>213</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>5</v>
@@ -6109,188 +6082,62 @@
         <v>10</v>
       </c>
       <c r="G233" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E234" s="5">
-        <v>0</v>
-      </c>
-      <c r="F234" s="5">
-        <v>10</v>
-      </c>
-      <c r="G234" s="5">
-        <v>6</v>
+        <v>222</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E234" s="7"/>
+      <c r="F234" s="7"/>
+      <c r="G234" s="12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>213</v>
+        <v>232</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E235" s="5">
-        <v>0</v>
-      </c>
-      <c r="F235" s="5">
-        <v>10</v>
-      </c>
-      <c r="G235" s="5">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>213</v>
+        <v>232</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E236" s="5">
-        <v>0</v>
-      </c>
-      <c r="F236" s="5">
-        <v>10</v>
-      </c>
-      <c r="G236" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D237" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D236" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E237" s="7"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D238" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E238" s="7"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D239" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E239" s="7"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E240" s="7"/>
-      <c r="F240" s="7"/>
-      <c r="G240" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E241" s="7"/>
-      <c r="F241" s="7"/>
-      <c r="G241" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G242" t="s">
-        <v>247</v>
+      <c r="G236" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
